--- a/01-beginner/021-hands-on-04.xlsx
+++ b/01-beginner/021-hands-on-04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddmcleod/Documents/microsoft-excel/01-beginner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Recording-PC\Documents\microsoft-excel\01-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37080" windowHeight="23300" tabRatio="675"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="37080" windowHeight="23303" tabRatio="675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -89,11 +89,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +108,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,246 +139,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -375,44 +189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:N8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Currency">
-  <autoFilter ref="A3:N8">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="1-Jan" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="3" name="1-Feb" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="1-Mar" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="1-Apr" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="1-May" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="7" name="1-Jun" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="8" name="1-Jul" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="9" name="1-Aug" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="10" name="1-Sep" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="11" name="1-Oct" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="12" name="1-Nov" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="13" name="1-Dec" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="Total"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -681,139 +457,141 @@
   <dimension ref="A3:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:M8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>29</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>41</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <v>44</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>36</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>26</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <v>42</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="9">
         <v>27</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="9">
         <v>47</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="9">
         <v>20</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="9">
         <v>25</v>
       </c>
+      <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>46</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>38</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>45</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>34</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>24</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>24</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>30</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>24</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>30</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>26</v>
       </c>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -852,57 +630,69 @@
       <c r="M6" s="2">
         <v>37</v>
       </c>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>31</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>33</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>48</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>23</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>29</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>21</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>24</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>41</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>48</v>
       </c>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>